--- a/tabelas_template/DISPLAY IPHONE.xlsx
+++ b/tabelas_template/DISPLAY IPHONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AE9C4F-C18B-4B27-BD8D-D130B8439167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4F237B-5EC3-497A-AEA0-CAAEDD2DC6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>DISPLAY IPHONE</t>
   </si>
@@ -36,9 +36,6 @@
     <t>5G</t>
   </si>
   <si>
-    <t>R$ 40,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -56,9 +53,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 355,00</t>
-  </si>
-  <si>
     <t xml:space="preserve">5s / 5SE </t>
   </si>
   <si>
@@ -89,15 +83,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 480,00</t>
-  </si>
-  <si>
     <t>6G</t>
   </si>
   <si>
-    <t>R$ 45,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -123,9 +111,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 210,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -150,9 +135,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -177,15 +159,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 310,00</t>
-  </si>
-  <si>
     <t>6 PLUS</t>
   </si>
   <si>
-    <t>R$ 45,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -203,15 +179,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 200,00</t>
-  </si>
-  <si>
     <t>6s</t>
   </si>
   <si>
-    <t>R$ 45,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -229,9 +199,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 290,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -256,9 +223,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -283,15 +247,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 315,00</t>
-  </si>
-  <si>
     <t>6s PLUS</t>
   </si>
   <si>
-    <t>R$ 55,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -316,9 +274,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 1.580,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -343,9 +298,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -363,15 +315,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 310,00</t>
-  </si>
-  <si>
     <t>7G</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -389,9 +335,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 385,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -416,9 +359,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -442,9 +382,6 @@
     <t>7 PLUS</t>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -469,9 +406,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 680,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -496,9 +430,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -524,15 +455,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 220,00</t>
-  </si>
-  <si>
     <t>8G / SE (2020)</t>
   </si>
   <si>
-    <t>R$ 50,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -557,9 +482,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 330,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -584,9 +506,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -604,15 +523,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 360,00</t>
-  </si>
-  <si>
     <t>8 PLUS</t>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -637,9 +550,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 795,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -664,9 +574,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -684,9 +591,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 350,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -704,9 +608,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -724,9 +625,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 460,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -744,9 +642,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -784,12 +679,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 155,00</t>
-  </si>
-  <si>
-    <t>R$ 1.250,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -814,15 +703,9 @@
     </r>
   </si>
   <si>
-    <t>R$ 190,00</t>
-  </si>
-  <si>
     <t xml:space="preserve">XR </t>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -848,9 +731,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 270,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -875,9 +755,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -903,9 +780,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 320,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -923,9 +797,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -951,9 +822,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 380,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -971,9 +839,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -991,9 +856,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 1.045,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1011,9 +873,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 160,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1031,9 +890,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 600,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1058,9 +914,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 205,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1098,12 +951,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
-    <t>R$ 1.380,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1129,9 +976,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 130,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1149,9 +993,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 205,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1176,12 +1017,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 235,00</t>
-  </si>
-  <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1206,9 +1041,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 105,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1226,9 +1058,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1246,9 +1075,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 130,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1266,9 +1092,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 200,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1293,9 +1116,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 220,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1313,9 +1133,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1341,9 +1158,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 135,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1361,9 +1175,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 225,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1388,9 +1199,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 255,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1408,9 +1216,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1428,9 +1233,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 145,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1448,9 +1250,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 235,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1475,9 +1274,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 265,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1495,9 +1291,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 125,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1513,9 +1306,6 @@
       </rPr>
       <t xml:space="preserve"> VIVID INCELL</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 195,00</t>
   </si>
   <si>
     <r>
@@ -1556,6 +1346,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1632,19 +1425,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1652,14 +1442,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1943,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1965,592 +1764,592 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="B2" s="8">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.95" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.95" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.95" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.95" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.95" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.95" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.95" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.95" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>59</v>
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.95" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.95" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8">
         <v>70</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="B21" s="9">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="B22" s="9">
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.95" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>88</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
+      </c>
+      <c r="B25" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>96</v>
+      <c r="A26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="9">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.95" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="9">
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.95" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="B29" s="8">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>111</v>
+      <c r="A30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.95" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="9">
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>115</v>
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="9">
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.95" customHeight="1">
       <c r="A33" s="3">
         <v>11</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>116</v>
+      <c r="B33" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>118</v>
+      <c r="A34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.95" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="B35" s="8">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.95" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="B36" s="9">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>124</v>
+        <v>65</v>
+      </c>
+      <c r="B37" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="9">
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.95" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>67</v>
+      </c>
+      <c r="B39" s="8">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>68</v>
+      </c>
+      <c r="B40" s="9">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>69</v>
+      </c>
+      <c r="B41" s="9">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.95" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>134</v>
+        <v>70</v>
+      </c>
+      <c r="B42" s="10">
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>71</v>
+      </c>
+      <c r="B43" s="9">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>138</v>
+        <v>72</v>
+      </c>
+      <c r="B44" s="10">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
+      </c>
+      <c r="B45" s="10">
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="B46" s="10">
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.95" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>144</v>
+        <v>75</v>
+      </c>
+      <c r="B47" s="9">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.95" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>76</v>
+      </c>
+      <c r="B48" s="9">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="10">
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>13</v>
+      <c r="B51" s="9">
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B52" s="9">
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B53" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B54" s="9">
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>29</v>
+      <c r="A55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="9">
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>33</v>
+      <c r="A56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="9">
+        <v>1580</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B57" s="9">
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="9">
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>49</v>
+      <c r="A60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="9">
+        <v>680</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="B61" s="9">
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>57</v>
+      <c r="A62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="9">
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="B63" s="9">
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>65</v>
+      <c r="A64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="9">
+        <v>795</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B65" s="9">
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="B66" s="9">
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>80</v>
+      <c r="B68" s="11">
+        <v>1250</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>86</v>
+        <v>46</v>
+      </c>
+      <c r="B69" s="9">
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="B70" s="9">
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>94</v>
+      <c r="A71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="9">
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1045</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="B73" s="10">
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>106</v>
+        <v>56</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>109</v>
+      <c r="A75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="11">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
